--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACF7FD6-75A3-8648-AD14-B98F75B3B0C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8418D0B9-7E92-3540-A6B4-67204DA16D1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
+    <workbookView xWindow="7420" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Karakterer og alias" sheetId="1" r:id="rId1"/>
+    <sheet name="problemer" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="233">
   <si>
     <t>Barselskvinden</t>
   </si>
   <si>
-    <t>Dreng</t>
-  </si>
-  <si>
     <t>Leander</t>
   </si>
   <si>
@@ -51,9 +49,6 @@
     <t>Kællingen</t>
   </si>
   <si>
-    <t>Pige</t>
-  </si>
-  <si>
     <t>2. pige</t>
   </si>
   <si>
@@ -63,91 +58,682 @@
     <t>Værten</t>
   </si>
   <si>
-    <t>Barselskvinde, Barselskonen, Barselsquinde</t>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Leander, Leander på knæ</t>
+  </si>
+  <si>
+    <t>2.pige, 2. pige</t>
+  </si>
+  <si>
+    <t>Vært, Værten</t>
+  </si>
+  <si>
+    <t>Trols, Troels</t>
+  </si>
+  <si>
+    <t>Filnavn</t>
+  </si>
+  <si>
+    <t>Mascarade_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Hexerie_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Betjenten</t>
+  </si>
+  <si>
+    <t>Betjenten, En betjent</t>
+  </si>
+  <si>
+    <t>Barselstuen_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Christine, Cristine</t>
+  </si>
+  <si>
+    <t>2. Officer</t>
+  </si>
+  <si>
+    <t>2. Officer, Den 2. Officer</t>
+  </si>
+  <si>
+    <t>Karakter</t>
+  </si>
+  <si>
+    <t>1. Komediant</t>
+  </si>
+  <si>
+    <t>Abracadabra_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Leander, Lenader</t>
+  </si>
+  <si>
+    <t>Jeppe_mod.jsonl</t>
+  </si>
+  <si>
+    <t>1. Advokat/Anklageren</t>
+  </si>
+  <si>
+    <t>Kammertjeneren</t>
+  </si>
+  <si>
+    <t>Lakaj</t>
+  </si>
+  <si>
+    <t>Kammertjener, Kammertjeneren</t>
+  </si>
+  <si>
+    <t>1. Advokat, Anklageren (1. advokat)</t>
+  </si>
+  <si>
+    <t>Lakajen, 1. lakaj</t>
+  </si>
+  <si>
+    <t>Erik Lakaj</t>
+  </si>
+  <si>
+    <t>Erik Lakaj, Erik</t>
+  </si>
+  <si>
+    <t>Jean_de_France_mod.jsonl</t>
+  </si>
+  <si>
+    <t>En Spiller, Spilleren</t>
+  </si>
+  <si>
+    <t>Ulysses_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Chilian, Chilan</t>
+  </si>
+  <si>
+    <t>Chilian</t>
+  </si>
+  <si>
+    <t>Manden</t>
+  </si>
+  <si>
+    <t>1. Komediant, 1.Komediant, 1. aktør</t>
+  </si>
+  <si>
+    <t>De_u-synlige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den usynliges broder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den usynliges [Magdelones] broder </t>
+  </si>
+  <si>
+    <t>Cosmoligoreus</t>
+  </si>
+  <si>
+    <t>Cosmoligoreus, Cogmoligoreus</t>
+  </si>
+  <si>
+    <t>Sganarel_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Philosophus_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Sganarel</t>
+  </si>
+  <si>
+    <t>Sganarel, Sganarel (sagte)</t>
+  </si>
+  <si>
+    <t>Drengen</t>
+  </si>
+  <si>
+    <t>Pigen</t>
+  </si>
+  <si>
+    <t>Spilleren</t>
+  </si>
+  <si>
+    <t>Barselskvinde, Barselskonen, Barselsquinde, Barselskvinden</t>
+  </si>
+  <si>
+    <t>1. dame</t>
+  </si>
+  <si>
+    <t>1. kone, 1. madame, Den 1. kone, 1. dame</t>
+  </si>
+  <si>
+    <t>2. dame</t>
+  </si>
+  <si>
+    <t>2. kone, 2. madame, 2. dame</t>
+  </si>
+  <si>
+    <t>Anne Kanderstøbers</t>
+  </si>
+  <si>
+    <t>1. advokat</t>
+  </si>
+  <si>
+    <t>1. officer</t>
+  </si>
+  <si>
+    <t>En pige</t>
+  </si>
+  <si>
+    <t>En anden pige, Pigen</t>
+  </si>
+  <si>
+    <t>Kællingen, Kælling</t>
+  </si>
+  <si>
+    <t>Officeren</t>
+  </si>
+  <si>
+    <t>Officeren, Officer</t>
+  </si>
+  <si>
+    <t>bondedreng_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Musikanten</t>
+  </si>
+  <si>
+    <t>Musikanten, Musikant</t>
+  </si>
+  <si>
+    <t>Paltsgreven</t>
+  </si>
+  <si>
+    <t>Paltsgreven, Paltsgreve</t>
+  </si>
+  <si>
+    <t>1. rådsherre</t>
+  </si>
+  <si>
+    <t>Rådsherre, Rådsherren, 1. rådsherre</t>
+  </si>
+  <si>
+    <t>1. værten, Værten</t>
+  </si>
+  <si>
+    <t>Postkarlen</t>
+  </si>
+  <si>
+    <t>En postkarl, Postkarlen</t>
+  </si>
+  <si>
+    <t>Konen</t>
+  </si>
+  <si>
+    <t>Moderen, Konen</t>
+  </si>
+  <si>
+    <t>Bonden</t>
+  </si>
+  <si>
+    <t>Faderen, Bonden</t>
+  </si>
+  <si>
+    <t>Den_stundesloese_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Advokaten</t>
+  </si>
+  <si>
+    <t>Advokten, Advokat</t>
+  </si>
+  <si>
+    <t>En bonde, Bonden</t>
+  </si>
+  <si>
+    <t>Skrædderen</t>
+  </si>
+  <si>
+    <t>En skrædder, Skrædderen</t>
+  </si>
+  <si>
+    <t>Erich Madsen</t>
+  </si>
+  <si>
+    <t>Erich Madsen, Erich</t>
+  </si>
+  <si>
+    <t>Jens Griffel</t>
+  </si>
+  <si>
+    <t>Jens, Jens Griffel</t>
+  </si>
+  <si>
+    <t>Juele-Stue_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Skolemesteren</t>
+  </si>
+  <si>
+    <t>Skolemester, Skolemesteren</t>
+  </si>
+  <si>
+    <t>Kilde-Reysen_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Doktor Bombastus</t>
+  </si>
+  <si>
+    <t>Doktoren, Doktor Bombastus</t>
+  </si>
+  <si>
+    <t>Melampe_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Polidorus</t>
+  </si>
+  <si>
+    <t>Polidor, Polidorus</t>
+  </si>
+  <si>
+    <t>Ranudo_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Don Ranudo</t>
+  </si>
+  <si>
+    <t>Ranudo, Don Ranudo</t>
+  </si>
+  <si>
+    <t>Donna Olympia</t>
+  </si>
+  <si>
+    <t>Olympia, Donna Olympia</t>
+  </si>
+  <si>
+    <t>Skibbrud_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Jeronimus</t>
+  </si>
+  <si>
+    <t>Jeronimus, Jeronymus</t>
+  </si>
+  <si>
+    <t>Pernille (grædende), Pernille</t>
+  </si>
+  <si>
+    <t>uden_hoved_og_hale_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Roland, Roland.</t>
+  </si>
+  <si>
+    <t>Anne, Anne Kanderstøbers</t>
+  </si>
+  <si>
+    <t>Den 1. advokat, 1. advokat</t>
+  </si>
+  <si>
+    <t>Den 1. officer, 1. officer</t>
+  </si>
+  <si>
+    <t>Hexerie</t>
+  </si>
+  <si>
+    <t>Philosophus</t>
+  </si>
+  <si>
+    <t>1. pige</t>
+  </si>
+  <si>
+    <t>Pige, Pigen, pigen, 1. pige</t>
+  </si>
+  <si>
+    <t>Den fremmede</t>
+  </si>
+  <si>
+    <t>manden</t>
+  </si>
+  <si>
+    <t>en gammel mand</t>
+  </si>
+  <si>
+    <t>manden i portechaisen</t>
+  </si>
+  <si>
+    <t>Drengen, En dreng, Dreng, En Dreng</t>
+  </si>
+  <si>
+    <t>Drengen [Jan]</t>
+  </si>
+  <si>
+    <t>5 husfolk</t>
+  </si>
+  <si>
+    <t>1 akt 2-3</t>
+  </si>
+  <si>
+    <t>1 akt sc. 4-5</t>
+  </si>
+  <si>
+    <t>1 akt 7-8</t>
+  </si>
+  <si>
+    <t>3 akt 4</t>
+  </si>
+  <si>
+    <t>har ingen replikker som sådan</t>
+  </si>
+  <si>
+    <t>3 akt sc 8 har ingen speaker</t>
+  </si>
+  <si>
+    <t>hexerie</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Herren</t>
+  </si>
+  <si>
+    <t>Herren, Fruens mand</t>
+  </si>
+  <si>
+    <t>det er en ny filosof i hver scene, men speakeren er bare "filosoffen"</t>
+  </si>
+  <si>
+    <t>Palæstrio</t>
+  </si>
+  <si>
+    <t>Palæstrio, Palæstri</t>
+  </si>
+  <si>
+    <t>Tjeneren</t>
+  </si>
+  <si>
+    <t>Tjeneren, tjeneren</t>
+  </si>
+  <si>
+    <t>Den_Vaegelsindede_1723_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Plutus_mod.jsonl</t>
+  </si>
+  <si>
+    <t>En mand, Manden</t>
+  </si>
+  <si>
+    <t>Den_Vaegelsindede_1731_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Apicius</t>
+  </si>
+  <si>
+    <t>Apicius, Apicius (alene)</t>
+  </si>
+  <si>
+    <t>Eraste</t>
+  </si>
+  <si>
+    <t>Eraste, Eraste (alene)</t>
+  </si>
+  <si>
+    <t>Jacob_von_Tyboe_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Christoffer, Christoff</t>
+  </si>
+  <si>
+    <t>Jens</t>
+  </si>
+  <si>
+    <t>Jens, Jens.</t>
+  </si>
+  <si>
+    <t>Jesper Oldfux</t>
+  </si>
+  <si>
+    <t>Christoff</t>
+  </si>
+  <si>
+    <t>Jesper, Jesper.</t>
+  </si>
+  <si>
+    <t>Leonora</t>
+  </si>
+  <si>
+    <t>Leonora, Leonora.</t>
+  </si>
+  <si>
+    <t>Pernille, Pernille.</t>
+  </si>
+  <si>
+    <t>Petronius</t>
+  </si>
+  <si>
+    <t>Petronius, Petronius.</t>
+  </si>
+  <si>
+    <t>Tychonius</t>
+  </si>
+  <si>
+    <t>Tychonius, Tychonius.</t>
+  </si>
+  <si>
+    <t>Tyboe</t>
+  </si>
+  <si>
+    <t>Tyboe, Tyboe., Tyboes tale til folket</t>
+  </si>
+  <si>
+    <t>Det_Arabiske_Pulver_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Leander og Oldfux</t>
+  </si>
+  <si>
+    <t>To personer siger den samme replik</t>
+  </si>
+  <si>
+    <t>Oldfux</t>
+  </si>
+  <si>
+    <t>Sganarel og Dorothea</t>
+  </si>
+  <si>
+    <t>Dorothea</t>
+  </si>
+  <si>
+    <t>Børnene</t>
+  </si>
+  <si>
+    <t>Christopher, Henning, Marie, Anne, Per, Else</t>
+  </si>
+  <si>
+    <t>Disse karakterer optræder både som et samlet "børnene" og har enkelt replikker</t>
+  </si>
+  <si>
+    <t>Kandst_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Abrahams og Sanderus</t>
+  </si>
+  <si>
+    <t>1. og 2. Rådsherreinde er ikke medtaget. De er formentlig 1. og 2. i personlisten</t>
+  </si>
+  <si>
+    <t>To lakajer. Der findes kun en lakaj og lakajen i rollelisten</t>
+  </si>
+  <si>
+    <t>Den_11_Junii_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Der er både fremmede (2 personer der taler), den fremmede og en anden fremmed. Sidstenævnte fremgår ikke i rolleoversigten</t>
+  </si>
+  <si>
+    <t>Indenfor fremstår som en rolle</t>
+  </si>
+  <si>
+    <t>Nytaarsprolog_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Nytårsprolog kan ikke køres igennem.</t>
+  </si>
+  <si>
+    <t>1. advokat, Advokat</t>
+  </si>
+  <si>
+    <t>2. advokat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. advokat, 2. Advokat, </t>
+  </si>
+  <si>
+    <t>Abrahams</t>
+  </si>
+  <si>
+    <t>Abrahams, Abrahams.</t>
+  </si>
+  <si>
+    <t>Pigen, En pige</t>
+  </si>
+  <si>
+    <t>Lakajen</t>
+  </si>
+  <si>
+    <t>En lakaj, Lakajen</t>
+  </si>
+  <si>
+    <t>Frantz Knivsmed</t>
+  </si>
+  <si>
+    <t>Frantz Knivsmed, Frantz</t>
+  </si>
+  <si>
+    <t>Gert Buntmager</t>
+  </si>
+  <si>
+    <t>Gert Buntmager, Gert Bundtmager, Gert</t>
+  </si>
+  <si>
+    <t>Herman von Bremenfeld</t>
+  </si>
+  <si>
+    <t>Herman von Bremenfeld, Herman</t>
+  </si>
+  <si>
+    <t>Richart Børstenbinder</t>
+  </si>
+  <si>
+    <t>Richart, Richart Børstenbinder</t>
+  </si>
+  <si>
+    <t>Sivert Posekigger</t>
+  </si>
+  <si>
+    <t>Sivert Posekigger, Sivert</t>
+  </si>
+  <si>
+    <t>GertWestphaler1723_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Borgeren</t>
+  </si>
+  <si>
+    <t>Borgeren, 1. borger</t>
+  </si>
+  <si>
+    <t>Den Fremmede</t>
+  </si>
+  <si>
+    <t>Den Fremmede, Den fremmede</t>
+  </si>
+  <si>
+    <t>Mester Gert Westphaler</t>
+  </si>
+  <si>
+    <t>Gert Westphaler, Gert, Mester Gert Westphaler, Mester Gert</t>
+  </si>
+  <si>
+    <t>Jørgen Handskemager</t>
+  </si>
+  <si>
+    <t>Jørgen Handskemager, Jørgen</t>
+  </si>
+  <si>
+    <t>Tobias Prokurator</t>
+  </si>
+  <si>
+    <t>Tobias Prokurator, Tobias</t>
+  </si>
+  <si>
+    <t>Tvende mænd</t>
+  </si>
+  <si>
+    <t>Tvende mænd, De tvende mænd</t>
+  </si>
+  <si>
+    <t>GertWestphaler1724_mod.jsonl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mester Gert </t>
+  </si>
+  <si>
+    <t>Mester Gert, Gert</t>
+  </si>
+  <si>
+    <t>Vægter</t>
+  </si>
+  <si>
+    <t>Vægter, vægter</t>
+  </si>
+  <si>
+    <t>Vægterne</t>
+  </si>
+  <si>
+    <t>Vægterne, 2 vægter</t>
+  </si>
+  <si>
+    <t>Anden købmand</t>
+  </si>
+  <si>
+    <t>Anden købmand, Den anden købmand</t>
+  </si>
+  <si>
+    <t>Anden propietær</t>
+  </si>
+  <si>
+    <t>Anden proprietær, Den anden proprietær</t>
+  </si>
+  <si>
+    <t>Første proprietær</t>
+  </si>
+  <si>
+    <t>Første proprietær, Den første proprietær</t>
   </si>
   <si>
     <t>Drengen, En dreng</t>
   </si>
   <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Leander, Leander på knæ</t>
-  </si>
-  <si>
-    <t>Kælling, Kællingen</t>
-  </si>
-  <si>
-    <t>2.pige, 2. pige</t>
-  </si>
-  <si>
-    <t>Pernille., Pernille</t>
-  </si>
-  <si>
-    <t>Vært, Værten</t>
-  </si>
-  <si>
-    <t>Trols, Troels</t>
-  </si>
-  <si>
-    <t>Filnavn</t>
-  </si>
-  <si>
-    <t>Mascarade_mod.jsonl</t>
-  </si>
-  <si>
-    <t>Hexerie_mod.jsonl</t>
-  </si>
-  <si>
-    <t>Pige, Pigen, pigen</t>
-  </si>
-  <si>
-    <t>Betjenten</t>
-  </si>
-  <si>
-    <t>Betjenten, En betjent</t>
-  </si>
-  <si>
-    <t>Barselstuen_mod.jsonl</t>
-  </si>
-  <si>
-    <t>Christine</t>
-  </si>
-  <si>
-    <t>Christine, Cristine</t>
-  </si>
-  <si>
-    <t>Officer</t>
-  </si>
-  <si>
-    <t>Officer, Officeren</t>
-  </si>
-  <si>
-    <t>2. Officer</t>
-  </si>
-  <si>
-    <t>2. Officer, Den 2. Officer</t>
-  </si>
-  <si>
-    <t>1. Advokat</t>
-  </si>
-  <si>
-    <t>1. Advokat, Den 1. Advokat</t>
-  </si>
-  <si>
-    <t>Karakter</t>
-  </si>
-  <si>
-    <t>1. Komediant</t>
-  </si>
-  <si>
-    <t>1. Komediant, 1.Komediant</t>
-  </si>
-  <si>
-    <t>Abracadabra_mod.jsonl</t>
-  </si>
-  <si>
-    <t>Leander, Lenader</t>
+    <t>Niels Christensen</t>
+  </si>
+  <si>
+    <t>Niels Christensen, Den rette Niels Christensen</t>
+  </si>
+  <si>
+    <t>Proprietær</t>
+  </si>
+  <si>
+    <t>Proprietær, proprietær</t>
+  </si>
+  <si>
+    <t>Pigen, En pige, 1. pige</t>
   </si>
 </sst>
 </file>
@@ -198,10 +784,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,207 +1103,1253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
+      <c r="A6" t="s">
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
+      <c r="A9" t="s">
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>37</v>
       </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" t="s">
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
-    <sortCondition ref="A2:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C92">
+    <sortCondition ref="A3:A92"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3EF882-6F0E-6449-BF3F-52DA3CC48D65}">
+  <dimension ref="A2:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8418D0B9-7E92-3540-A6B4-67204DA16D1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067A970-64F8-C84B-ABEA-CD63767FC320}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="235">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -734,6 +734,12 @@
   </si>
   <si>
     <t>Pigen, En pige, 1. pige</t>
+  </si>
+  <si>
+    <t>Indenfor</t>
+  </si>
+  <si>
+    <t>der er en karakter, der hedder indenfor…</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2149,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3EF882-6F0E-6449-BF3F-52DA3CC48D65}">
-  <dimension ref="A2:E19"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2349,6 +2355,17 @@
         <v>182</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067A970-64F8-C84B-ABEA-CD63767FC320}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4E701E-CC6D-904C-93C3-E616BDFB95AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="234">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -680,9 +680,6 @@
   </si>
   <si>
     <t>GertWestphaler1724_mod.jsonl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mester Gert </t>
   </si>
   <si>
     <t>Mester Gert, Gert</t>
@@ -1111,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1369,10 +1366,10 @@
         <v>178</v>
       </c>
       <c r="B23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" t="s">
         <v>217</v>
-      </c>
-      <c r="C23" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1380,10 +1377,10 @@
         <v>178</v>
       </c>
       <c r="B24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" t="s">
         <v>219</v>
-      </c>
-      <c r="C24" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1391,10 +1388,10 @@
         <v>178</v>
       </c>
       <c r="B25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" t="s">
         <v>221</v>
-      </c>
-      <c r="C25" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1402,10 +1399,10 @@
         <v>178</v>
       </c>
       <c r="B26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" t="s">
         <v>223</v>
-      </c>
-      <c r="C26" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1413,10 +1410,10 @@
         <v>178</v>
       </c>
       <c r="B27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" t="s">
         <v>225</v>
-      </c>
-      <c r="C27" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1427,7 +1424,7 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1435,10 +1432,10 @@
         <v>178</v>
       </c>
       <c r="B29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" t="s">
         <v>228</v>
-      </c>
-      <c r="C29" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1446,10 +1443,10 @@
         <v>178</v>
       </c>
       <c r="B30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" t="s">
         <v>230</v>
-      </c>
-      <c r="C30" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,10 +1619,10 @@
         <v>214</v>
       </c>
       <c r="B46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" t="s">
         <v>215</v>
-      </c>
-      <c r="C46" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2142,7 +2139,7 @@
         <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2360,10 +2357,10 @@
         <v>178</v>
       </c>
       <c r="B22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" t="s">
         <v>233</v>
-      </c>
-      <c r="D22" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4E701E-CC6D-904C-93C3-E616BDFB95AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB2913-D1E3-D24F-8947-BFDC5E06BF0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
+    <workbookView xWindow="7800" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Karakterer og alias" sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>Spilleren</t>
   </si>
   <si>
-    <t>Barselskvinde, Barselskonen, Barselsquinde, Barselskvinden</t>
-  </si>
-  <si>
     <t>1. dame</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>2. kone, 2. madame, 2. dame</t>
   </si>
   <si>
-    <t>Anne Kanderstøbers</t>
-  </si>
-  <si>
     <t>1. advokat</t>
   </si>
   <si>
@@ -373,9 +367,6 @@
     <t>Roland, Roland.</t>
   </si>
   <si>
-    <t>Anne, Anne Kanderstøbers</t>
-  </si>
-  <si>
     <t>Den 1. advokat, 1. advokat</t>
   </si>
   <si>
@@ -737,6 +728,15 @@
   </si>
   <si>
     <t>der er en karakter, der hedder indenfor…</t>
+  </si>
+  <si>
+    <t>Barselskvinde, Barselskonen, Barselsquinde, Barselskvinden, Barselsqvinde</t>
+  </si>
+  <si>
+    <t>Anne, Anne Kanderstøbers, Anne Kandestøbers</t>
+  </si>
+  <si>
+    <t>Anne Kandestøbers</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1157,10 +1157,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1168,10 +1168,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1179,10 +1179,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1190,10 +1190,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1212,10 +1212,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1234,10 +1234,10 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1275,79 +1275,79 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
         <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1363,266 +1363,266 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
         <v>81</v>
-      </c>
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
         <v>144</v>
       </c>
-      <c r="B38" t="s">
-        <v>147</v>
-      </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
         <v>201</v>
       </c>
-      <c r="B41" t="s">
-        <v>204</v>
-      </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1641,10 +1641,10 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1652,10 +1652,10 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1696,109 +1696,109 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" t="s">
         <v>149</v>
-      </c>
-      <c r="B55" t="s">
-        <v>151</v>
-      </c>
-      <c r="C55" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1858,145 +1858,145 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" t="s">
         <v>91</v>
-      </c>
-      <c r="B68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
         <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
         <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B79" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" t="s">
         <v>94</v>
-      </c>
-      <c r="B80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2012,13 +2012,13 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
         <v>97</v>
-      </c>
-      <c r="B82" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2034,46 +2034,46 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" t="s">
         <v>100</v>
-      </c>
-      <c r="B86" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2089,35 +2089,35 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" t="s">
         <v>105</v>
-      </c>
-      <c r="B89" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" t="s">
         <v>109</v>
-      </c>
-      <c r="B91" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2133,13 +2133,13 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
         <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2167,200 +2167,200 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" t="s">
         <v>174</v>
-      </c>
-      <c r="D16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB2913-D1E3-D24F-8947-BFDC5E06BF0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE262520-D040-9048-B6CE-1E888CA444F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
+    <workbookView xWindow="4220" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Karakterer og alias" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="244">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Officeren, Officer</t>
   </si>
   <si>
-    <t>bondedreng_mod.jsonl</t>
-  </si>
-  <si>
     <t>Musikanten</t>
   </si>
   <si>
@@ -694,9 +691,6 @@
     <t>Anden købmand, Den anden købmand</t>
   </si>
   <si>
-    <t>Anden propietær</t>
-  </si>
-  <si>
     <t>Anden proprietær, Den anden proprietær</t>
   </si>
   <si>
@@ -737,6 +731,42 @@
   </si>
   <si>
     <t>Anne Kandestøbers</t>
+  </si>
+  <si>
+    <t>Anden proprietær</t>
+  </si>
+  <si>
+    <t>proprietær</t>
+  </si>
+  <si>
+    <t>Er nok 1 proprietær, men det er ikke helt klart</t>
+  </si>
+  <si>
+    <t>Bondedreng_mod.jsonl</t>
+  </si>
+  <si>
+    <t>fremmede</t>
+  </si>
+  <si>
+    <t>en eller flere</t>
+  </si>
+  <si>
+    <t>Den_Stundesloese_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Virker ikke i graf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manden, </t>
+  </si>
+  <si>
+    <t>1 og 2</t>
+  </si>
+  <si>
+    <t>noget med rådsherrerinderne</t>
+  </si>
+  <si>
+    <t>står forkert i fil</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,10 +1209,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1193,7 +1223,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1204,7 +1234,7 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1248,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1275,79 +1305,79 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1363,266 +1393,266 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" t="s">
         <v>213</v>
-      </c>
-      <c r="C23" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" t="s">
         <v>215</v>
-      </c>
-      <c r="C24" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s">
         <v>217</v>
-      </c>
-      <c r="C25" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" t="s">
         <v>79</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
         <v>85</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
         <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
         <v>141</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>142</v>
-      </c>
-      <c r="C37" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
-      </c>
-      <c r="C38" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
         <v>198</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>199</v>
-      </c>
-      <c r="C40" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" t="s">
         <v>201</v>
-      </c>
-      <c r="C41" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" t="s">
         <v>203</v>
-      </c>
-      <c r="C42" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" t="s">
         <v>205</v>
-      </c>
-      <c r="C43" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" t="s">
         <v>207</v>
-      </c>
-      <c r="C44" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" t="s">
         <v>209</v>
-      </c>
-      <c r="C45" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" t="s">
         <v>211</v>
-      </c>
-      <c r="B46" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1641,10 +1671,10 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1652,10 +1682,10 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
         <v>114</v>
-      </c>
-      <c r="C49" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1696,131 +1726,131 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
         <v>131</v>
-      </c>
-      <c r="C53" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
         <v>146</v>
-      </c>
-      <c r="B55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1828,10 +1858,10 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1839,10 +1869,10 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1850,301 +1880,312 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
         <v>98</v>
       </c>
-      <c r="B87" t="s">
-        <v>101</v>
-      </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" t="s">
         <v>103</v>
       </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
       <c r="C90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B93" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
         <v>52</v>
       </c>
-      <c r="C93" t="s">
-        <v>228</v>
+      <c r="C94" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C92">
-    <sortCondition ref="A3:A92"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C93">
+    <sortCondition ref="A3:A93"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2152,215 +2193,276 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3EF882-6F0E-6449-BF3F-52DA3CC48D65}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
         <v>126</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
         <v>163</v>
-      </c>
-      <c r="D9" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
         <v>168</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>169</v>
-      </c>
-      <c r="D13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
         <v>171</v>
       </c>
-      <c r="B14" t="s">
-        <v>172</v>
-      </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
         <v>175</v>
-      </c>
-      <c r="D17" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
         <v>178</v>
-      </c>
-      <c r="D19" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE262520-D040-9048-B6CE-1E888CA444F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7585365-6547-E34C-9D49-4BC284978D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Karakterer og alias" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="243">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -382,9 +382,6 @@
     <t>Pige, Pigen, pigen, 1. pige</t>
   </si>
   <si>
-    <t>Den fremmede</t>
-  </si>
-  <si>
     <t>manden</t>
   </si>
   <si>
@@ -757,9 +754,6 @@
     <t>Virker ikke i graf</t>
   </si>
   <si>
-    <t xml:space="preserve">Manden, </t>
-  </si>
-  <si>
     <t>1 og 2</t>
   </si>
   <si>
@@ -767,6 +761,9 @@
   </si>
   <si>
     <t>står forkert i fil</t>
+  </si>
+  <si>
+    <t>Den fremmede person</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1209,10 +1206,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1278,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1305,7 +1302,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -1316,7 +1313,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -1327,7 +1324,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -1338,7 +1335,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1349,7 +1346,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -1371,7 +1368,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -1393,95 +1390,95 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" t="s">
         <v>212</v>
-      </c>
-      <c r="C23" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
         <v>214</v>
-      </c>
-      <c r="C24" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" t="s">
         <v>216</v>
-      </c>
-      <c r="C25" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" t="s">
         <v>219</v>
-      </c>
-      <c r="C27" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" t="s">
         <v>222</v>
-      </c>
-      <c r="C29" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" t="s">
         <v>224</v>
-      </c>
-      <c r="C30" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s">
         <v>79</v>
@@ -1492,7 +1489,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" t="s">
         <v>76</v>
@@ -1503,7 +1500,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s">
         <v>82</v>
@@ -1514,7 +1511,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -1525,7 +1522,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B35" t="s">
         <v>86</v>
@@ -1536,123 +1533,123 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
         <v>140</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>141</v>
-      </c>
-      <c r="C37" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
         <v>143</v>
-      </c>
-      <c r="C38" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" t="s">
         <v>197</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>198</v>
-      </c>
-      <c r="C40" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
         <v>200</v>
-      </c>
-      <c r="C41" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" t="s">
         <v>202</v>
-      </c>
-      <c r="C42" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" t="s">
         <v>204</v>
-      </c>
-      <c r="C43" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" t="s">
         <v>206</v>
-      </c>
-      <c r="C44" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" t="s">
         <v>208</v>
-      </c>
-      <c r="C45" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" t="s">
         <v>210</v>
-      </c>
-      <c r="B46" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1671,10 +1668,10 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1726,62 +1723,62 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
         <v>130</v>
-      </c>
-      <c r="C53" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>153</v>
@@ -1789,68 +1786,68 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1858,10 +1855,10 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1869,10 +1866,10 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1880,62 +1877,62 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
         <v>183</v>
@@ -1943,156 +1940,156 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2100,32 +2097,32 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2133,59 +2130,48 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>52</v>
-      </c>
-      <c r="C94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C93">
-    <sortCondition ref="A3:A93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C92">
+    <sortCondition ref="A3:A92"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2196,7 +2182,7 @@
   <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2211,13 +2197,13 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
         <v>115</v>
       </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2225,13 +2211,13 @@
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2239,13 +2225,13 @@
         <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2253,24 +2239,24 @@
         <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
         <v>125</v>
-      </c>
-      <c r="E5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
         <v>128</v>
       </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2278,7 +2264,7 @@
         <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2289,10 +2275,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
         <v>162</v>
-      </c>
-      <c r="D9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2300,10 +2286,10 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2314,7 +2300,7 @@
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2322,10 +2308,10 @@
         <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2333,136 +2319,136 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
         <v>167</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>168</v>
-      </c>
-      <c r="D13" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
         <v>170</v>
       </c>
-      <c r="B14" t="s">
-        <v>171</v>
-      </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" t="s">
         <v>174</v>
-      </c>
-      <c r="D17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" t="s">
         <v>177</v>
-      </c>
-      <c r="D19" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" t="s">
         <v>227</v>
-      </c>
-      <c r="D22" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" t="s">
         <v>233</v>
-      </c>
-      <c r="D23" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" t="s">
         <v>236</v>
-      </c>
-      <c r="D24" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
         <v>140</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>141</v>
       </c>
-      <c r="C27" t="s">
-        <v>142</v>
-      </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" t="s">
         <v>170</v>
-      </c>
-      <c r="C29" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" t="s">
         <v>241</v>
-      </c>
-      <c r="C30" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7585365-6547-E34C-9D49-4BC284978D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933AE31A-912D-AA41-92C0-FEC405AD21EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="255">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -610,9 +610,6 @@
     <t>Herman von Bremenfeld</t>
   </si>
   <si>
-    <t>Herman von Bremenfeld, Herman</t>
-  </si>
-  <si>
     <t>Richart Børstenbinder</t>
   </si>
   <si>
@@ -764,13 +761,52 @@
   </si>
   <si>
     <t>Den fremmede person</t>
+  </si>
+  <si>
+    <t>Artaxerxes_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Arbaces</t>
+  </si>
+  <si>
+    <t>artabanus og semira.</t>
+  </si>
+  <si>
+    <t>Artaxerxes</t>
+  </si>
+  <si>
+    <t>Arbaces, Arbaces sagte., Arbaces.</t>
+  </si>
+  <si>
+    <t>Artaxerxes, Artaxerxes alleene.</t>
+  </si>
+  <si>
+    <t>Herman von Bremenfeld, Herman, Bremenfeld</t>
+  </si>
+  <si>
+    <t>Semira</t>
+  </si>
+  <si>
+    <t>Semira, Semira.</t>
+  </si>
+  <si>
+    <t>tutti</t>
+  </si>
+  <si>
+    <t>ved ikke hvor</t>
+  </si>
+  <si>
+    <t>Mandane</t>
+  </si>
+  <si>
+    <t>Mandane, Mandane.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -793,6 +829,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -814,11 +856,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,10 +1249,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1275,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1302,7 +1345,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -1313,7 +1356,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -1324,7 +1367,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -1335,7 +1378,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1346,7 +1389,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -1357,7 +1400,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -1368,7 +1411,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -1393,10 +1436,10 @@
         <v>173</v>
       </c>
       <c r="B23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" t="s">
         <v>211</v>
-      </c>
-      <c r="C23" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1404,10 +1447,10 @@
         <v>173</v>
       </c>
       <c r="B24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" t="s">
         <v>213</v>
-      </c>
-      <c r="C24" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1415,10 +1458,10 @@
         <v>173</v>
       </c>
       <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
         <v>215</v>
-      </c>
-      <c r="C25" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1426,10 +1469,10 @@
         <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1437,10 +1480,10 @@
         <v>173</v>
       </c>
       <c r="B27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" t="s">
         <v>218</v>
-      </c>
-      <c r="C27" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1451,7 +1494,7 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1459,10 +1502,10 @@
         <v>173</v>
       </c>
       <c r="B29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" t="s">
         <v>221</v>
-      </c>
-      <c r="C29" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1470,15 +1513,15 @@
         <v>173</v>
       </c>
       <c r="B30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" t="s">
         <v>223</v>
-      </c>
-      <c r="C30" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s">
         <v>79</v>
@@ -1489,7 +1532,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s">
         <v>76</v>
@@ -1500,7 +1543,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s">
         <v>82</v>
@@ -1511,7 +1554,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -1522,7 +1565,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
         <v>86</v>
@@ -1577,79 +1620,79 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" t="s">
         <v>196</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>197</v>
-      </c>
-      <c r="C40" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" t="s">
         <v>199</v>
-      </c>
-      <c r="C41" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" t="s">
         <v>201</v>
-      </c>
-      <c r="C42" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" t="s">
         <v>203</v>
-      </c>
-      <c r="C43" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" t="s">
         <v>205</v>
-      </c>
-      <c r="C44" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" t="s">
         <v>207</v>
-      </c>
-      <c r="C45" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" t="s">
         <v>209</v>
-      </c>
-      <c r="B46" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1990,7 +2033,7 @@
         <v>190</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1998,10 +2041,10 @@
         <v>169</v>
       </c>
       <c r="B78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" t="s">
         <v>192</v>
-      </c>
-      <c r="C78" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2009,10 +2052,10 @@
         <v>169</v>
       </c>
       <c r="B79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" t="s">
         <v>194</v>
-      </c>
-      <c r="C79" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2166,7 +2209,51 @@
         <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>242</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>242</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>242</v>
+      </c>
+      <c r="B96" t="s">
+        <v>249</v>
+      </c>
+      <c r="C96" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>242</v>
+      </c>
+      <c r="B97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2179,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3EF882-6F0E-6449-BF3F-52DA3CC48D65}">
-  <dimension ref="A2:E30"/>
+  <dimension ref="A2:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2197,7 +2284,7 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
         <v>115</v>
@@ -2384,10 +2471,10 @@
         <v>173</v>
       </c>
       <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" t="s">
         <v>226</v>
-      </c>
-      <c r="D22" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2395,13 +2482,13 @@
         <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" t="s">
         <v>232</v>
-      </c>
-      <c r="D23" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2409,10 +2496,10 @@
         <v>173</v>
       </c>
       <c r="B24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" t="s">
         <v>235</v>
-      </c>
-      <c r="D24" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2426,7 +2513,7 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2442,13 +2529,35 @@
         <v>169</v>
       </c>
       <c r="B30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" t="s">
         <v>239</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>240</v>
       </c>
-      <c r="D30" t="s">
-        <v>241</v>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933AE31A-912D-AA41-92C0-FEC405AD21EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2D838E-7E93-E14E-8A42-882C7DB4F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21000" windowHeight="16940" activeTab="1" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Karakterer og alias" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="254">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -391,12 +391,6 @@
     <t>manden i portechaisen</t>
   </si>
   <si>
-    <t>Drengen, En dreng, Dreng, En Dreng</t>
-  </si>
-  <si>
-    <t>Drengen [Jan]</t>
-  </si>
-  <si>
     <t>5 husfolk</t>
   </si>
   <si>
@@ -715,9 +709,6 @@
     <t>Indenfor</t>
   </si>
   <si>
-    <t>der er en karakter, der hedder indenfor…</t>
-  </si>
-  <si>
     <t>Barselskvinde, Barselskonen, Barselsquinde, Barselskvinden, Barselsqvinde</t>
   </si>
   <si>
@@ -800,6 +791,12 @@
   </si>
   <si>
     <t>Mandane, Mandane.</t>
+  </si>
+  <si>
+    <t>Drengen, En dreng, Dreng, En Dreng, Jan</t>
+  </si>
+  <si>
+    <t>det er studerende, der råber offstage</t>
   </si>
 </sst>
 </file>
@@ -1178,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,10 +1246,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1318,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1345,7 +1342,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -1356,7 +1353,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -1367,7 +1364,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -1378,7 +1375,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1389,7 +1386,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -1400,7 +1397,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -1411,7 +1408,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -1433,95 +1430,95 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s">
         <v>79</v>
@@ -1532,7 +1529,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s">
         <v>76</v>
@@ -1543,7 +1540,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s">
         <v>82</v>
@@ -1554,7 +1551,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -1565,7 +1562,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s">
         <v>86</v>
@@ -1576,123 +1573,123 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
         <v>139</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
         <v>195</v>
-      </c>
-      <c r="B40" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1711,10 +1708,10 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1766,103 +1763,103 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" t="s">
         <v>144</v>
       </c>
-      <c r="B55" t="s">
-        <v>146</v>
-      </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" t="s">
         <v>148</v>
-      </c>
-      <c r="C56" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1939,123 +1936,123 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
         <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B72" t="s">
         <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
         <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2104,24 +2101,24 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2209,51 +2206,51 @@
         <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>239</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="C95" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B96" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C96" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2268,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3EF882-6F0E-6449-BF3F-52DA3CC48D65}">
   <dimension ref="A2:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2284,13 +2281,13 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
         <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2304,7 +2301,7 @@
         <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2318,7 +2315,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2326,24 +2323,24 @@
         <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2351,7 +2348,7 @@
         <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2362,10 +2359,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2373,10 +2370,10 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2387,7 +2384,7 @@
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2395,10 +2392,10 @@
         <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2406,147 +2403,147 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" t="s">
         <v>166</v>
-      </c>
-      <c r="C13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
         <v>169</v>
-      </c>
-      <c r="D15" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
         <v>173</v>
-      </c>
-      <c r="D18" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
         <v>139</v>
       </c>
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" t="s">
-        <v>141</v>
-      </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2554,10 +2551,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2D838E-7E93-E14E-8A42-882C7DB4F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B13D3B8-42D4-CB4E-9A2E-42A7DAB33442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21000" windowHeight="16940" activeTab="1" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Karakterer og alias" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="256">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -769,9 +769,6 @@
     <t>Arbaces, Arbaces sagte., Arbaces.</t>
   </si>
   <si>
-    <t>Artaxerxes, Artaxerxes alleene.</t>
-  </si>
-  <si>
     <t>Herman von Bremenfeld, Herman, Bremenfeld</t>
   </si>
   <si>
@@ -797,6 +794,15 @@
   </si>
   <si>
     <t>det er studerende, der råber offstage</t>
+  </si>
+  <si>
+    <t>Artaxerxes, Artaxerxes alleene., Artaxerxes.</t>
+  </si>
+  <si>
+    <t>Artabanus</t>
+  </si>
+  <si>
+    <t>Artabanus, Artabanus.</t>
   </si>
 </sst>
 </file>
@@ -1173,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1711,7 +1717,7 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2030,7 +2036,7 @@
         <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2228,7 +2234,7 @@
         <v>242</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2236,10 +2242,10 @@
         <v>239</v>
       </c>
       <c r="B96" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" t="s">
         <v>246</v>
-      </c>
-      <c r="C96" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2247,10 +2253,21 @@
         <v>239</v>
       </c>
       <c r="B97" t="s">
+        <v>249</v>
+      </c>
+      <c r="C97" t="s">
         <v>250</v>
       </c>
-      <c r="C97" t="s">
-        <v>251</v>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>239</v>
+      </c>
+      <c r="B98" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3EF882-6F0E-6449-BF3F-52DA3CC48D65}">
   <dimension ref="A2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -2471,7 +2488,7 @@
         <v>223</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2551,10 +2568,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B13D3B8-42D4-CB4E-9A2E-42A7DAB33442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BD2B3F-1F88-6248-B04F-52C1F4C3E1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
+    <workbookView xWindow="8780" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Karakterer og alias" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="271">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -121,9 +121,6 @@
     <t>1. Advokat/Anklageren</t>
   </si>
   <si>
-    <t>Kammertjeneren</t>
-  </si>
-  <si>
     <t>Lakaj</t>
   </si>
   <si>
@@ -508,9 +505,6 @@
     <t>Tyboe</t>
   </si>
   <si>
-    <t>Tyboe, Tyboe., Tyboes tale til folket</t>
-  </si>
-  <si>
     <t>Det_Arabiske_Pulver_mod.jsonl</t>
   </si>
   <si>
@@ -583,9 +577,6 @@
     <t>Pigen, En pige</t>
   </si>
   <si>
-    <t>Lakajen</t>
-  </si>
-  <si>
     <t>En lakaj, Lakajen</t>
   </si>
   <si>
@@ -778,12 +769,6 @@
     <t>Semira, Semira.</t>
   </si>
   <si>
-    <t>tutti</t>
-  </si>
-  <si>
-    <t>ved ikke hvor</t>
-  </si>
-  <si>
     <t>Mandane</t>
   </si>
   <si>
@@ -803,6 +788,66 @@
   </si>
   <si>
     <t>Artabanus, Artabanus.</t>
+  </si>
+  <si>
+    <t>Indenfor [studerende]</t>
+  </si>
+  <si>
+    <t>Arianke</t>
+  </si>
+  <si>
+    <t>er med i to stykker, i den ene spilles hun af en mand</t>
+  </si>
+  <si>
+    <t>anden købmand</t>
+  </si>
+  <si>
+    <t>2. købmand</t>
+  </si>
+  <si>
+    <t>anden proprietær</t>
+  </si>
+  <si>
+    <t>2. proprietær</t>
+  </si>
+  <si>
+    <t>anden rådsherre</t>
+  </si>
+  <si>
+    <t>2. rådsherre</t>
+  </si>
+  <si>
+    <t>første købmand</t>
+  </si>
+  <si>
+    <t>første proprietær</t>
+  </si>
+  <si>
+    <t>første rådsherre</t>
+  </si>
+  <si>
+    <t>1. købmand</t>
+  </si>
+  <si>
+    <t>1. proprietær</t>
+  </si>
+  <si>
+    <t>Kavaleren</t>
+  </si>
+  <si>
+    <t>Kavaler</t>
+  </si>
+  <si>
+    <t>Kammertjener</t>
+  </si>
+  <si>
+    <t>tredje proprietær</t>
+  </si>
+  <si>
+    <t>3. proprietær</t>
+  </si>
+  <si>
+    <t>Tyboe, Tyboe., Tyboes tale til folket, Tyboes tale til folket:</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1230,10 +1275,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1241,10 +1286,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1252,10 +1297,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1263,10 +1308,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,10 +1319,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1285,10 +1330,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
         <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1299,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1307,10 +1352,10 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
         <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1321,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1348,354 +1393,354 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
         <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
         <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
         <v>79</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
         <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
         <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
         <v>137</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>138</v>
-      </c>
-      <c r="C37" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
         <v>140</v>
-      </c>
-      <c r="C38" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" t="s">
         <v>193</v>
       </c>
-      <c r="B41" t="s">
-        <v>196</v>
-      </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1706,7 +1751,7 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1714,10 +1759,10 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1725,10 +1770,10 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
         <v>113</v>
-      </c>
-      <c r="C49" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1769,120 +1814,120 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s">
         <v>127</v>
-      </c>
-      <c r="C53" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
         <v>142</v>
-      </c>
-      <c r="B54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
         <v>144</v>
-      </c>
-      <c r="C55" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" t="s">
         <v>149</v>
-      </c>
-      <c r="C57" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
         <v>152</v>
-      </c>
-      <c r="C59" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
         <v>154</v>
-      </c>
-      <c r="C60" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
         <v>63</v>
-      </c>
-      <c r="C62" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s">
         <v>35</v>
-      </c>
-      <c r="B63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1893,7 +1938,7 @@
         <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1901,10 +1946,10 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1912,10 +1957,10 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1923,153 +1968,153 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
         <v>33</v>
-      </c>
-      <c r="C67" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
         <v>88</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>89</v>
-      </c>
-      <c r="C68" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
         <v>91</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>92</v>
-      </c>
-      <c r="C80" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2085,189 +2130,288 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
         <v>94</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>95</v>
-      </c>
-      <c r="C82" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" t="s">
         <v>45</v>
-      </c>
-      <c r="C83" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B84" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" t="s">
         <v>130</v>
-      </c>
-      <c r="C84" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" t="s">
         <v>132</v>
-      </c>
-      <c r="C85" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" t="s">
         <v>97</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>98</v>
-      </c>
-      <c r="C86" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" t="s">
         <v>100</v>
-      </c>
-      <c r="C87" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" t="s">
         <v>49</v>
-      </c>
-      <c r="C88" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" t="s">
         <v>102</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>103</v>
-      </c>
-      <c r="C89" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" t="s">
         <v>106</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>107</v>
-      </c>
-      <c r="C91" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" t="s">
         <v>37</v>
-      </c>
-      <c r="B92" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="C95" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B96" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C97" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B98" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" t="s">
+        <v>251</v>
+      </c>
+      <c r="C99" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C98" t="s">
-        <v>255</v>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>101</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2280,10 +2424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3EF882-6F0E-6449-BF3F-52DA3CC48D65}">
-  <dimension ref="A2:E35"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2295,283 +2439,283 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
         <v>122</v>
-      </c>
-      <c r="E5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
         <v>125</v>
       </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" t="s">
         <v>164</v>
-      </c>
-      <c r="C13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
         <v>167</v>
-      </c>
-      <c r="D15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" t="s">
         <v>171</v>
-      </c>
-      <c r="D18" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
         <v>137</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>138</v>
       </c>
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
       <c r="D27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C33" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35" t="s">
-        <v>247</v>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BD2B3F-1F88-6248-B04F-52C1F4C3E1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC84764A-844B-9C48-845F-5954ACE3DC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
+    <workbookView xWindow="7800" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Karakterer og alias" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="268">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -799,33 +799,15 @@
     <t>er med i to stykker, i den ene spilles hun af en mand</t>
   </si>
   <si>
-    <t>anden købmand</t>
-  </si>
-  <si>
     <t>2. købmand</t>
   </si>
   <si>
-    <t>anden proprietær</t>
-  </si>
-  <si>
     <t>2. proprietær</t>
   </si>
   <si>
-    <t>anden rådsherre</t>
-  </si>
-  <si>
     <t>2. rådsherre</t>
   </si>
   <si>
-    <t>første købmand</t>
-  </si>
-  <si>
-    <t>første proprietær</t>
-  </si>
-  <si>
-    <t>første rådsherre</t>
-  </si>
-  <si>
     <t>1. købmand</t>
   </si>
   <si>
@@ -841,13 +823,22 @@
     <t>Kammertjener</t>
   </si>
   <si>
-    <t>tredje proprietær</t>
-  </si>
-  <si>
     <t>3. proprietær</t>
   </si>
   <si>
     <t>Tyboe, Tyboe., Tyboes tale til folket, Tyboes tale til folket:</t>
+  </si>
+  <si>
+    <t>Anden rådsherre</t>
+  </si>
+  <si>
+    <t>Første købmand</t>
+  </si>
+  <si>
+    <t>Første rådsherre</t>
+  </si>
+  <si>
+    <t>Tredje proprietær</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1905,7 +1896,7 @@
         <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1946,7 +1937,7 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -2331,10 +2322,10 @@
         <v>169</v>
       </c>
       <c r="B100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2342,10 +2333,10 @@
         <v>169</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2353,10 +2344,10 @@
         <v>134</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2364,10 +2355,10 @@
         <v>169</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2375,10 +2366,10 @@
         <v>169</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2389,7 +2380,7 @@
         <v>68</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2397,10 +2388,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2408,10 +2399,10 @@
         <v>169</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC84764A-844B-9C48-845F-5954ACE3DC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B6FBE0-0DE8-F44D-9E1D-607E392B52BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="500" windowWidth="21000" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
+    <workbookView xWindow="4520" yWindow="500" windowWidth="24020" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Karakterer og alias" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="265">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -664,18 +664,12 @@
     <t>Vægterne, 2 vægter</t>
   </si>
   <si>
-    <t>Anden købmand</t>
-  </si>
-  <si>
     <t>Anden købmand, Den anden købmand</t>
   </si>
   <si>
     <t>Anden proprietær, Den anden proprietær</t>
   </si>
   <si>
-    <t>Første proprietær</t>
-  </si>
-  <si>
     <t>Første proprietær, Den første proprietær</t>
   </si>
   <si>
@@ -707,9 +701,6 @@
   </si>
   <si>
     <t>Anne Kandestøbers</t>
-  </si>
-  <si>
-    <t>Anden proprietær</t>
   </si>
   <si>
     <t>proprietær</t>
@@ -895,12 +886,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1215,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,1185 +1222,1152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C9" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C17" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>230</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>230</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>230</v>
-      </c>
-      <c r="B35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C96" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>190</v>
-      </c>
-      <c r="B40" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>190</v>
-      </c>
-      <c r="B42" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" t="s">
-        <v>201</v>
-      </c>
-      <c r="C45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>203</v>
-      </c>
-      <c r="B46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>141</v>
-      </c>
-      <c r="B54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>141</v>
-      </c>
-      <c r="B60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" t="s">
-        <v>261</v>
-      </c>
-      <c r="C65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>165</v>
-      </c>
-      <c r="B70" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>165</v>
-      </c>
-      <c r="B72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>165</v>
-      </c>
-      <c r="B73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>165</v>
-      </c>
-      <c r="B74" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" t="s">
-        <v>181</v>
-      </c>
-      <c r="C75" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>165</v>
-      </c>
-      <c r="B76" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>165</v>
-      </c>
-      <c r="B79" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B83" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>134</v>
-      </c>
-      <c r="B84" t="s">
-        <v>129</v>
-      </c>
-      <c r="C84" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>134</v>
-      </c>
-      <c r="B85" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="C101" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B89" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>101</v>
-      </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B102" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B103" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C103" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B104" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C104" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>236</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>236</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>236</v>
-      </c>
-      <c r="B96" t="s">
-        <v>242</v>
-      </c>
-      <c r="C96" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>236</v>
-      </c>
-      <c r="B97" t="s">
-        <v>244</v>
-      </c>
-      <c r="C97" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>236</v>
-      </c>
-      <c r="B98" t="s">
-        <v>249</v>
-      </c>
-      <c r="C98" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>169</v>
-      </c>
-      <c r="B99" t="s">
-        <v>251</v>
-      </c>
-      <c r="C99" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>169</v>
-      </c>
-      <c r="B100" t="s">
-        <v>254</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>169</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>134</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>169</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>169</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>134</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>101</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>169</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C92">
-    <sortCondition ref="A3:A92"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C107">
+    <sortCondition ref="A2:A107"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2433,12 +2393,12 @@
         <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2466,7 +2426,7 @@
       <c r="C4" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2620,10 +2580,10 @@
         <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2631,13 +2591,13 @@
         <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2645,10 +2605,10 @@
         <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2662,7 +2622,7 @@
         <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2678,35 +2638,35 @@
         <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="4"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B6FBE0-0DE8-F44D-9E1D-607E392B52BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD8C7CA-0819-834A-81A1-94DEEC25948D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="500" windowWidth="24020" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="265">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -166,9 +166,6 @@
     <t xml:space="preserve">Den usynliges broder </t>
   </si>
   <si>
-    <t xml:space="preserve">Den usynliges [Magdelones] broder </t>
-  </si>
-  <si>
     <t>Cosmoligoreus</t>
   </si>
   <si>
@@ -550,9 +547,6 @@
     <t>Der er både fremmede (2 personer der taler), den fremmede og en anden fremmed. Sidstenævnte fremgår ikke i rolleoversigten</t>
   </si>
   <si>
-    <t>Indenfor fremstår som en rolle</t>
-  </si>
-  <si>
     <t>Nytaarsprolog_mod.jsonl</t>
   </si>
   <si>
@@ -830,13 +824,19 @@
   </si>
   <si>
     <t>Tredje proprietær</t>
+  </si>
+  <si>
+    <t>Den usynlige</t>
+  </si>
+  <si>
+    <t>er både "Leonora", Columbine, og Magdelone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -865,6 +865,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -886,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -894,6 +900,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,57 +1252,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>245</v>
+        <v>234</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1314,10 +1321,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1325,10 +1332,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1336,10 +1343,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1347,10 +1354,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1358,10 +1365,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1369,10 +1376,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1383,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1391,10 +1398,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1405,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1432,79 +1439,79 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1512,7 +1519,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>42</v>
@@ -1520,299 +1527,299 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1831,10 +1838,10 @@
         <v>14</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1842,10 +1849,10 @@
         <v>14</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1886,109 +1893,109 @@
         <v>14</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1996,7 +2003,7 @@
         <v>34</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>35</v>
@@ -2018,7 +2025,7 @@
         <v>26</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>29</v>
@@ -2048,145 +2055,145 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2202,156 +2209,156 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="C100" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2375,287 +2382,290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3EF882-6F0E-6449-BF3F-52DA3CC48D65}">
-  <dimension ref="A2:E34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" t="s">
+        <v>264</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
         <v>121</v>
-      </c>
-      <c r="E5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
         <v>124</v>
       </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
         <v>157</v>
-      </c>
-      <c r="D9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
         <v>162</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>163</v>
-      </c>
-      <c r="D13" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s">
         <v>165</v>
       </c>
-      <c r="B14" t="s">
-        <v>166</v>
-      </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" t="s">
         <v>169</v>
-      </c>
-      <c r="D17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
         <v>136</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>137</v>
       </c>
-      <c r="C27" t="s">
-        <v>138</v>
-      </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
         <v>165</v>
-      </c>
-      <c r="C29" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" t="s">
         <v>229</v>
-      </c>
-      <c r="C30" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
@@ -2663,10 +2673,10 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/Rolleliste.xlsx
+++ b/Rolleliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ullakallenbach/Dropbox/FORSKNING/Kulturarvscluster/P017_R_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD8C7CA-0819-834A-81A1-94DEEC25948D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3216B91-FD1D-5A40-9AE6-B8E66F499483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="500" windowWidth="24020" windowHeight="16940" xr2:uid="{CB4EA0A2-2CDD-6E44-9382-313F495EEF1B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="273">
   <si>
     <t>Barselskvinden</t>
   </si>
@@ -232,12 +232,6 @@
     <t>Musikanten, Musikant</t>
   </si>
   <si>
-    <t>Paltsgreven</t>
-  </si>
-  <si>
-    <t>Paltsgreven, Paltsgreve</t>
-  </si>
-  <si>
     <t>1. rådsherre</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>Bonden</t>
   </si>
   <si>
-    <t>Faderen, Bonden</t>
-  </si>
-  <si>
     <t>Den_stundesloese_mod.jsonl</t>
   </si>
   <si>
@@ -830,6 +821,39 @@
   </si>
   <si>
     <t>er både "Leonora", Columbine, og Magdelone</t>
+  </si>
+  <si>
+    <t>Gejsten</t>
+  </si>
+  <si>
+    <t>Gejsten, et spøgelse</t>
+  </si>
+  <si>
+    <t>Bondedreng</t>
+  </si>
+  <si>
+    <t>Bonden er både bondedrengen og hans far (i sidste scene)</t>
+  </si>
+  <si>
+    <t>Faderen</t>
+  </si>
+  <si>
+    <t>OBS - han kaldes også bonden</t>
+  </si>
+  <si>
+    <t>De_u-synlige_mod.jsonl</t>
+  </si>
+  <si>
+    <t>Filosoffen</t>
+  </si>
+  <si>
+    <t>Filosoffen, En filosof</t>
+  </si>
+  <si>
+    <t>Bondedrengen, Paltsgreven, Paltsgreve, Per Nielsen, Bonden</t>
+  </si>
+  <si>
+    <t>Bondedrengen/Paltsgreven</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E2D2AA-8F7A-E44B-B236-98A48F3AAF14}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1252,57 +1276,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1343,10 +1367,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1357,7 +1381,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1368,7 +1392,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1404,7 +1428,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1412,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1426,7 +1450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1437,9 +1461,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>63</v>
@@ -1448,9 +1472,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>65</v>
@@ -1459,31 +1483,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>70</v>
@@ -1492,31 +1516,34 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>42</v>
@@ -1525,301 +1552,301 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="5" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="5" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="5" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="C46" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1841,7 +1868,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1849,10 +1876,10 @@
         <v>14</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1893,103 +1920,103 @@
         <v>14</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>61</v>
@@ -2025,7 +2052,7 @@
         <v>26</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>29</v>
@@ -2055,145 +2082,145 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2209,172 +2236,194 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>259</v>
+        <v>130</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>97</v>
+        <v>130</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>103</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>255</v>
+        <v>97</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B106" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C107">
-    <sortCondition ref="A2:A107"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C109">
+    <sortCondition ref="A2:A109"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2382,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3EF882-6F0E-6449-BF3F-52DA3CC48D65}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2400,283 +2449,291 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
         <v>164</v>
-      </c>
-      <c r="D16" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
